--- a/Jan'2021/Daily Sales Details/12.01.2021/Stock Seet.xlsx
+++ b/Jan'2021/Daily Sales Details/12.01.2021/Stock Seet.xlsx
@@ -1063,7 +1063,7 @@
   <dimension ref="A1:Q167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1296,13 +1296,13 @@
       <c r="L8" s="37"/>
       <c r="M8" s="38"/>
       <c r="N8" s="35">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="O8" s="35">
         <v>10</v>
       </c>
       <c r="P8" s="35">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="37"/>
     </row>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="N28" s="23">
         <f>SUM(N7:N27)</f>
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="O28" s="23">
         <f t="shared" si="0"/>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="P28" s="23">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Q28" s="24"/>
     </row>
